--- a/biology/Zoologie/Caïque_à_queue_courte/Caïque_à_queue_courte.xlsx
+++ b/biology/Zoologie/Caïque_à_queue_courte/Caïque_à_queue_courte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ca%C3%AFque_%C3%A0_queue_courte</t>
+          <t>Caïque_à_queue_courte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Graydidascalus brachyurus
 Le Caïque à queue courte (Graydidascalus brachyurus) est une espèce d'oiseaux de la famille des Psittacidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ca%C3%AFque_%C3%A0_queue_courte</t>
+          <t>Caïque_à_queue_courte</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 24 cm de long. Il a une silhouette très particulière : grosse tête, corps petit et trapu avec une queue très courte paraissant tronquée et dissimulée par les ailes au repos. Le plumage est vert. Les ailes sont bordées de jaune et marquées de rouge aux épaules. Le bec noir, muni d'une cire de même couleur, est puissant. Les iris sont rouges et les pattes grisâtres.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ca%C3%AFque_%C3%A0_queue_courte</t>
+          <t>Caïque_à_queue_courte</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit dans les forêts primaires.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ca%C3%AFque_%C3%A0_queue_courte</t>
+          <t>Caïque_à_queue_courte</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau peuple le bassin de l'Amazone.
 </t>
